--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30825" windowHeight="13710"/>
+    <workbookView windowWidth="20531" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>FPGA</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>40:29</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>Verilog语法讲解</t>
@@ -557,12 +560,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,67 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +602,77 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -674,42 +687,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,6 +707,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -736,25 +732,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,157 +882,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,24 +980,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,26 +1028,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1074,6 +1046,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1084,148 +1080,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1605,14 +1601,14 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2"/>
+    <col min="3" max="3" width="12.6296296296296" style="2"/>
     <col min="4" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1651,56 +1647,64 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1712,10 +1716,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
@@ -1725,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -1738,10 +1742,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
@@ -1751,10 +1755,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -1766,10 +1770,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="3"/>
@@ -1779,10 +1783,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
@@ -1792,10 +1796,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="3"/>
@@ -1805,10 +1809,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
@@ -1818,10 +1822,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5">
         <v>4</v>
@@ -1833,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="3"/>
@@ -1846,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
@@ -1859,10 +1863,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
@@ -1872,10 +1876,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
@@ -1887,10 +1891,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
@@ -1900,10 +1904,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
@@ -1913,10 +1917,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
@@ -1926,10 +1930,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="3"/>
@@ -1939,10 +1943,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5">
         <v>6</v>
@@ -1954,10 +1958,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
@@ -1967,10 +1971,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="3"/>
@@ -1980,10 +1984,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
@@ -1993,10 +1997,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3"/>
@@ -2006,10 +2010,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3"/>
@@ -2019,10 +2023,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5">
         <v>7</v>
@@ -2034,10 +2038,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
@@ -2047,10 +2051,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3"/>
@@ -2060,10 +2064,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="5">
         <v>8</v>
@@ -2075,10 +2079,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="3"/>
@@ -2088,10 +2092,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="3"/>
@@ -2101,10 +2105,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
@@ -2114,10 +2118,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="5">
         <v>9</v>
@@ -2129,10 +2133,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="3"/>
@@ -2142,10 +2146,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="3"/>
@@ -2155,10 +2159,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>
@@ -2168,10 +2172,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
@@ -2181,10 +2185,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -2196,10 +2200,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="3"/>
@@ -2209,10 +2213,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="3"/>
@@ -2222,10 +2226,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="5">
         <v>11</v>
@@ -2237,10 +2241,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="3"/>
@@ -2250,10 +2254,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="5">
         <v>12</v>
@@ -2265,10 +2269,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
@@ -2278,10 +2282,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
@@ -2291,10 +2295,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51" s="5">
         <v>13</v>
@@ -2306,10 +2310,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
@@ -2319,10 +2323,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
@@ -2332,10 +2336,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="3"/>
@@ -2345,10 +2349,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55" s="5">
         <v>14</v>
@@ -2360,10 +2364,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
@@ -2373,10 +2377,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="3"/>
@@ -2386,10 +2390,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="3"/>
@@ -2399,10 +2403,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D59" s="5">
         <v>15</v>
@@ -2414,10 +2418,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="3"/>
@@ -2427,10 +2431,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="3"/>
@@ -2440,10 +2444,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D62" s="5">
         <v>16</v>
@@ -2455,10 +2459,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="3"/>
@@ -2468,10 +2472,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="3"/>
@@ -2481,10 +2485,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="3"/>
@@ -2494,10 +2498,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D66" s="5">
         <v>17</v>
@@ -2509,10 +2513,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="3"/>
@@ -2522,10 +2526,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="3"/>
@@ -2535,10 +2539,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="3"/>
@@ -2548,10 +2552,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D70" s="5">
         <v>18</v>
@@ -2563,10 +2567,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="3"/>
@@ -2576,10 +2580,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="3"/>
@@ -2589,10 +2593,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="3"/>
@@ -2602,10 +2606,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D74" s="5">
         <v>19</v>
@@ -2617,10 +2621,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="3"/>
@@ -2630,10 +2634,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="3"/>
@@ -2643,10 +2647,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="3"/>
@@ -2656,10 +2660,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D78" s="5">
         <v>20</v>
@@ -2671,10 +2675,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="3"/>
@@ -2684,10 +2688,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="3"/>
@@ -2697,10 +2701,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="3"/>
@@ -2710,10 +2714,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="3"/>
@@ -2723,10 +2727,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83" s="5">
         <v>21</v>
@@ -2738,10 +2742,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="3"/>
@@ -2751,10 +2755,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="3"/>
@@ -2764,10 +2768,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86" s="5">
         <v>22</v>
@@ -2779,10 +2783,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="3"/>
@@ -2792,10 +2796,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="3"/>
@@ -2841,7 +2845,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2858,7 +2862,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -560,9 +560,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -579,15 +579,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,14 +632,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -632,56 +640,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,6 +676,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -716,8 +699,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,187 +732,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,21 +998,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,16 +1017,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1075,6 +1064,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1083,10 +1083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,133 +1095,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1709,7 +1709,9 @@
       <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -1722,7 +1724,9 @@
         <v>18</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
@@ -1735,7 +1739,9 @@
         <v>20</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -1748,7 +1754,9 @@
         <v>22</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -560,9 +560,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -580,15 +580,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -597,36 +589,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +603,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -648,7 +617,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,6 +630,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -676,16 +693,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,23 +702,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,37 +732,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,133 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,17 +978,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,17 +1017,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,26 +1041,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,10 +1083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,133 +1095,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,8 +1600,8 @@
   <sheetPr/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1771,7 +1771,9 @@
       <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
@@ -1784,7 +1786,9 @@
         <v>26</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
@@ -1797,7 +1801,9 @@
         <v>28</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
@@ -1810,7 +1816,9 @@
         <v>30</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
@@ -1823,7 +1831,9 @@
         <v>32</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
@@ -1838,7 +1848,9 @@
       <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
@@ -1851,7 +1863,9 @@
         <v>36</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
@@ -1864,7 +1878,9 @@
         <v>38</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
@@ -1877,7 +1893,9 @@
         <v>40</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -560,10 +560,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -579,26 +579,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,7 +601,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,9 +622,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,16 +670,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,23 +708,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,29 +722,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -732,25 +732,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,157 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,21 +979,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1004,39 +989,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,6 +1004,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,6 +1051,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1083,10 +1083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,133 +1095,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,8 +1600,8 @@
   <sheetPr/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1910,7 +1910,9 @@
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
@@ -1923,7 +1925,9 @@
         <v>44</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
@@ -1936,7 +1940,9 @@
         <v>46</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
@@ -1949,7 +1955,9 @@
         <v>48</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
@@ -1962,7 +1970,9 @@
         <v>50</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -560,10 +560,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -580,7 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,8 +593,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,9 +624,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +664,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,9 +672,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,44 +694,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -707,17 +709,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,79 +732,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,103 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,16 +979,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,34 +1033,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,21 +1058,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1075,6 +1066,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1083,10 +1083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,133 +1095,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,8 +1600,8 @@
   <sheetPr/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1987,7 +1987,9 @@
       <c r="D25" s="5">
         <v>6</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
@@ -2000,7 +2002,9 @@
         <v>54</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
@@ -2013,7 +2017,9 @@
         <v>56</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
@@ -2026,7 +2032,9 @@
         <v>58</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
@@ -2039,7 +2047,9 @@
         <v>60</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
@@ -2052,7 +2062,9 @@
         <v>62</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20531" windowHeight="10500"/>
+    <workbookView windowWidth="20565" windowHeight="18630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -593,19 +593,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,64 +608,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,7 +633,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,13 +722,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -732,12 +732,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -750,169 +846,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,45 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1028,6 +989,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,11 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,6 +1051,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1083,10 +1083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,10 +1095,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,118 +1107,118 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,14 +1601,14 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6296296296296" style="2"/>
+    <col min="3" max="3" width="12.6333333333333" style="2"/>
     <col min="4" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2079,7 +2079,9 @@
       <c r="D31" s="5">
         <v>7</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
@@ -2092,7 +2094,9 @@
         <v>66</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
@@ -2105,7 +2109,9 @@
         <v>68</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
@@ -2120,7 +2126,9 @@
       <c r="D34" s="5">
         <v>8</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
@@ -2133,7 +2141,9 @@
         <v>72</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
@@ -2146,7 +2156,9 @@
         <v>74</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
@@ -2159,7 +2171,9 @@
         <v>76</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
@@ -2893,7 +2907,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2910,7 +2924,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>FPGA</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>53:51</t>
+  </si>
+  <si>
+    <t>略</t>
   </si>
   <si>
     <t>LCD1602控制器源码分析</t>
@@ -561,9 +564,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -580,6 +583,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -587,7 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,7 +635,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +654,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,39 +713,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,43 +725,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -732,13 +735,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,19 +831,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,145 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +1000,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,6 +1020,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1024,6 +1042,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,30 +1078,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1083,10 +1086,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,133 +1098,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,8 +1603,8 @@
   <sheetPr/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2188,7 +2191,9 @@
       <c r="D38" s="5">
         <v>9</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
@@ -2201,125 +2206,143 @@
         <v>80</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5">
         <v>11</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5">
         <v>12</v>
@@ -2331,10 +2354,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
@@ -2344,10 +2367,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
@@ -2357,10 +2380,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D51" s="5">
         <v>13</v>
@@ -2372,10 +2395,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
@@ -2385,10 +2408,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
@@ -2398,10 +2421,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="3"/>
@@ -2411,10 +2434,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" s="5">
         <v>14</v>
@@ -2426,10 +2449,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
@@ -2439,10 +2462,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="3"/>
@@ -2452,10 +2475,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="3"/>
@@ -2465,10 +2488,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D59" s="5">
         <v>15</v>
@@ -2480,10 +2503,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="3"/>
@@ -2493,10 +2516,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="3"/>
@@ -2506,10 +2529,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D62" s="5">
         <v>16</v>
@@ -2521,10 +2544,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="3"/>
@@ -2534,10 +2557,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="3"/>
@@ -2547,10 +2570,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="3"/>
@@ -2560,10 +2583,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D66" s="5">
         <v>17</v>
@@ -2575,10 +2598,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="3"/>
@@ -2588,10 +2611,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="3"/>
@@ -2601,10 +2624,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="3"/>
@@ -2614,10 +2637,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D70" s="5">
         <v>18</v>
@@ -2629,10 +2652,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="3"/>
@@ -2642,10 +2665,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="3"/>
@@ -2655,10 +2678,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="3"/>
@@ -2668,10 +2691,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D74" s="5">
         <v>19</v>
@@ -2683,10 +2706,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="3"/>
@@ -2696,10 +2719,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="3"/>
@@ -2709,10 +2732,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="3"/>
@@ -2722,10 +2745,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D78" s="5">
         <v>20</v>
@@ -2737,10 +2760,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="3"/>
@@ -2750,10 +2773,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="3"/>
@@ -2763,10 +2786,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="3"/>
@@ -2776,10 +2799,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="3"/>
@@ -2789,10 +2812,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D83" s="5">
         <v>21</v>
@@ -2804,10 +2827,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="3"/>
@@ -2817,10 +2840,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="3"/>
@@ -2830,10 +2853,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D86" s="5">
         <v>22</v>
@@ -2845,10 +2868,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="3"/>
@@ -2858,10 +2881,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="3"/>

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -563,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -583,6 +583,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -591,38 +598,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,7 +613,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,17 +666,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,38 +712,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,187 +735,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,26 +981,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,36 +1035,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1078,6 +1058,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1086,145 +1086,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2347,7 +2347,9 @@
       <c r="D48" s="5">
         <v>12</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
@@ -2360,7 +2362,9 @@
         <v>101</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
@@ -2373,7 +2377,9 @@
         <v>103</v>
       </c>
       <c r="D50" s="6"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
@@ -2388,7 +2394,9 @@
       <c r="D51" s="5">
         <v>13</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
@@ -2401,7 +2409,9 @@
         <v>107</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
@@ -2414,7 +2424,9 @@
         <v>109</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
@@ -2427,7 +2439,9 @@
         <v>111</v>
       </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">

--- a/课程内容/FPGA.xlsx
+++ b/课程内容/FPGA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="18630"/>
+    <workbookView windowWidth="30495" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,14 +583,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,25 +619,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,19 +635,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,38 +658,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,6 +669,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,11 +690,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -735,187 +735,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,30 +981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1020,17 +996,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,6 +1016,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,13 +1049,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,10 +1086,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,133 +1098,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1603,8 +1603,8 @@
   <sheetPr/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2456,7 +2456,9 @@
       <c r="D55" s="5">
         <v>14</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
@@ -2469,7 +2471,9 @@
         <v>115</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
@@ -2482,7 +2486,9 @@
         <v>117</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
@@ -2495,7 +2501,9 @@
         <v>119</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
@@ -2510,7 +2518,9 @@
       <c r="D59" s="5">
         <v>15</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
@@ -2523,7 +2533,9 @@
         <v>123</v>
       </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
@@ -2536,7 +2548,9 @@
         <v>125</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
@@ -2551,7 +2565,9 @@
       <c r="D62" s="5">
         <v>16</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
@@ -2564,7 +2580,9 @@
         <v>129</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
@@ -2577,7 +2595,9 @@
         <v>131</v>
       </c>
       <c r="D64" s="6"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
@@ -2590,7 +2610,9 @@
         <v>133</v>
       </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
